--- a/excel/demo.xlsx
+++ b/excel/demo.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
@@ -17,7 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,6 +28,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -56,8 +64,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -364,103 +378,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B19"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +612,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -485,6 +627,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
